--- a/msit_gorns.xlsx
+++ b/msit_gorns.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="828">
   <si>
     <t>Designation</t>
   </si>
@@ -3118,6 +3118,15 @@
 Limits: 2 FTM or one FTM +1 PFM.</t>
   </si>
   <si>
+    <t>MB (ND)</t>
+  </si>
+  <si>
+    <t>MB(3)</t>
+  </si>
+  <si>
+    <t>Undeployed MB</t>
+  </si>
+  <si>
     <t>MB</t>
   </si>
   <si>
@@ -3144,10 +3153,7 @@
     </r>
   </si>
   <si>
-    <t>MB(3)</t>
-  </si>
-  <si>
-    <t>See (510.2); EW=1. Module Limits: 2 FTM or one FTM +1 PFM.</t>
+    <t>See (510.2); EW=1</t>
   </si>
   <si>
     <t>SB</t>
@@ -3817,12 +3823,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="9"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
       <family val="1"/>
@@ -3840,6 +3840,12 @@
       <name val="MS Gothic"/>
       <charset val="1"/>
       <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -3869,12 +3875,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
@@ -3910,7 +3923,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -3919,11 +3932,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3935,7 +3948,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3943,7 +3956,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3951,7 +3964,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3959,7 +3972,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3967,11 +3980,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3979,19 +3992,19 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -3999,11 +4012,11 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4011,27 +4024,23 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4043,24 +4052,40 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="6" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
@@ -4154,8 +4179,8 @@
   </sheetPr>
   <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A165" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H171" activeCellId="0" pane="topLeft" sqref="H171"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A167" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A169" activeCellId="0" pane="topLeft" sqref="169:170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4634,7 +4659,7 @@
       <c r="G15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="9" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -4678,7 +4703,7 @@
       <c r="J16" s="10" t="n">
         <v>4.5</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4814,7 +4839,7 @@
       <c r="G21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="9" t="s">
         <v>111</v>
       </c>
       <c r="I21" s="5" t="s">
@@ -4828,37 +4853,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="64" outlineLevel="0" r="22">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="27" t="n">
+      <c r="B22" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="28" t="n">
+      <c r="E22" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J22" s="29" t="n">
+      <c r="J22" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="25" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4898,37 +4923,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53" outlineLevel="0" r="24">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="27" t="n">
+      <c r="B24" s="26" t="n">
         <v>49</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="28" t="n">
+      <c r="E24" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="9" t="s">
         <v>121</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="29" t="n">
+      <c r="J24" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="25" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5104,10 +5129,10 @@
       <c r="H30" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="30" t="n">
+      <c r="J30" s="29" t="n">
         <v>2.75</v>
       </c>
       <c r="K30" s="5" t="s">
@@ -5206,7 +5231,7 @@
       <c r="G33" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="9" t="s">
         <v>161</v>
       </c>
       <c r="I33" s="5" t="s">
@@ -5255,7 +5280,7 @@
       <c r="B35" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="30" t="s">
         <v>171</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -5284,34 +5309,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="36">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="28" t="n">
+      <c r="E36" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="J36" s="29" t="n">
+      <c r="J36" s="28" t="n">
         <v>2.5</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -5364,7 +5389,7 @@
       <c r="J38" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="9" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5393,7 +5418,7 @@
       <c r="H39" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I39" s="25" t="s">
+      <c r="I39" s="9" t="s">
         <v>191</v>
       </c>
       <c r="J39" s="10" t="n">
@@ -5404,34 +5429,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="40">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="27" t="n">
+      <c r="B40" s="26" t="n">
         <v>74</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="28" t="n">
+      <c r="E40" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="J40" s="29" t="n">
+      <c r="J40" s="28" t="n">
         <v>2</v>
       </c>
       <c r="K40" s="5" t="s">
@@ -5480,7 +5505,7 @@
       <c r="B42" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="30" t="s">
         <v>199</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -5495,7 +5520,7 @@
       <c r="G42" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="9" t="s">
         <v>201</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -5530,7 +5555,7 @@
       <c r="G43" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="9" t="s">
         <v>205</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -5620,7 +5645,7 @@
       <c r="B46" s="20" t="n">
         <v>923</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="31" t="s">
         <v>216</v>
       </c>
       <c r="D46" s="9" t="s">
@@ -5670,7 +5695,7 @@
       <c r="G47" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="9" t="s">
         <v>221</v>
       </c>
       <c r="I47" s="5" t="s">
@@ -5690,7 +5715,7 @@
       <c r="B48" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="30" t="s">
         <v>171</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -5705,7 +5730,7 @@
       <c r="G48" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="9" t="s">
         <v>225</v>
       </c>
       <c r="I48" s="5" t="s">
@@ -5725,7 +5750,7 @@
       <c r="B49" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="30" t="s">
         <v>171</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -5754,34 +5779,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="50">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E50" s="28" t="n">
+      <c r="E50" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="I50" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="J50" s="29" t="n">
+      <c r="J50" s="28" t="n">
         <v>2</v>
       </c>
       <c r="K50" s="5" t="s">
@@ -5789,34 +5814,34 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="51">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="27" t="n">
+      <c r="B51" s="26" t="n">
         <v>85</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E51" s="28" t="n">
+      <c r="E51" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="I51" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="J51" s="29" t="n">
+      <c r="J51" s="28" t="n">
         <v>2</v>
       </c>
       <c r="K51" s="5" t="s">
@@ -5880,7 +5905,7 @@
       <c r="B54" s="20" t="n">
         <v>38</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="31" t="s">
         <v>248</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -6035,7 +6060,7 @@
       <c r="G58" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="H58" s="9" t="s">
         <v>272</v>
       </c>
       <c r="I58" s="5" t="s">
@@ -6055,7 +6080,7 @@
       <c r="B59" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="30" t="s">
         <v>277</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -6070,7 +6095,7 @@
       <c r="G59" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="9" t="s">
         <v>278</v>
       </c>
       <c r="I59" s="5" t="s">
@@ -6126,7 +6151,7 @@
       <c r="I61" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="J61" s="33" t="n">
+      <c r="J61" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K61" s="9" t="s">
@@ -6175,7 +6200,7 @@
       <c r="B63" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="31" t="s">
         <v>289</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -6196,7 +6221,7 @@
       <c r="I63" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="J63" s="33" t="n">
+      <c r="J63" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K63" s="9" t="s">
@@ -6254,13 +6279,13 @@
       <c r="G65" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="9" t="s">
         <v>296</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J65" s="30" t="n">
+      <c r="J65" s="29" t="n">
         <v>1.25</v>
       </c>
       <c r="K65" s="5" t="s">
@@ -6295,7 +6320,7 @@
       <c r="I66" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="J66" s="33" t="n">
+      <c r="J66" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K66" s="9" t="s">
@@ -6330,7 +6355,7 @@
       <c r="I67" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="J67" s="33" t="n">
+      <c r="J67" s="32" t="n">
         <v>2.75</v>
       </c>
       <c r="K67" s="9" t="s">
@@ -6394,13 +6419,13 @@
       <c r="G69" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="H69" s="9" t="s">
         <v>311</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="J69" s="30" t="n">
+      <c r="J69" s="29" t="n">
         <v>1.25</v>
       </c>
       <c r="K69" s="5" t="s">
@@ -6435,7 +6460,7 @@
       <c r="I70" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J70" s="33" t="n">
+      <c r="J70" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K70" s="9" t="s">
@@ -6487,13 +6512,13 @@
       <c r="G72" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="9" t="s">
         <v>323</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="J72" s="30" t="n">
+      <c r="J72" s="29" t="n">
         <v>1.25</v>
       </c>
       <c r="K72" s="9" t="s">
@@ -6528,7 +6553,7 @@
       <c r="I73" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="J73" s="33" t="n">
+      <c r="J73" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K73" s="9" t="s">
@@ -6563,7 +6588,7 @@
       <c r="I74" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="J74" s="33" t="n">
+      <c r="J74" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K74" s="9" t="s">
@@ -6592,13 +6617,13 @@
       <c r="G75" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H75" s="25" t="s">
+      <c r="H75" s="9" t="s">
         <v>337</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="J75" s="30" t="n">
+      <c r="J75" s="29" t="n">
         <v>1.25</v>
       </c>
       <c r="K75" s="5" t="s">
@@ -6627,13 +6652,13 @@
       <c r="G76" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="9" t="s">
         <v>342</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="J76" s="30" t="n">
+      <c r="J76" s="29" t="n">
         <v>1.25</v>
       </c>
       <c r="K76" s="5" t="s">
@@ -6668,7 +6693,7 @@
       <c r="I77" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J77" s="33" t="n">
+      <c r="J77" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K77" s="9" t="s">
@@ -6682,7 +6707,7 @@
       <c r="B78" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="31" t="s">
         <v>349</v>
       </c>
       <c r="D78" s="9" t="s">
@@ -6703,7 +6728,7 @@
       <c r="I78" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J78" s="33" t="n">
+      <c r="J78" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K78" s="9" t="s">
@@ -6747,13 +6772,13 @@
       <c r="G80" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="9" t="s">
         <v>356</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="J80" s="30" t="n">
+      <c r="J80" s="29" t="n">
         <v>1.25</v>
       </c>
       <c r="K80" s="9" t="s">
@@ -6788,7 +6813,7 @@
       <c r="I81" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="J81" s="33" t="n">
+      <c r="J81" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K81" s="9" t="s">
@@ -6823,7 +6848,7 @@
       <c r="I82" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="J82" s="33" t="n">
+      <c r="J82" s="32" t="n">
         <v>1.25</v>
       </c>
       <c r="K82" s="9" t="s">
@@ -6887,7 +6912,7 @@
       <c r="B85" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="31" t="s">
         <v>375</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -6902,7 +6927,7 @@
       <c r="G85" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H85" s="25" t="s">
+      <c r="H85" s="9" t="s">
         <v>376</v>
       </c>
       <c r="I85" s="5" t="s">
@@ -6951,37 +6976,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="87">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B87" s="27" t="n">
+      <c r="B87" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="28" t="n">
+      <c r="E87" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="F87" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="G87" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="I87" s="26" t="s">
+      <c r="I87" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="J87" s="29" t="n">
+      <c r="J87" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="K87" s="26" t="s">
+      <c r="K87" s="25" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6992,7 +7017,7 @@
       <c r="B88" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="30" t="s">
         <v>389</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -7007,7 +7032,7 @@
       <c r="G88" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="9" t="s">
         <v>390</v>
       </c>
       <c r="I88" s="5" t="s">
@@ -7056,37 +7081,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="90">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B90" s="27" t="n">
+      <c r="B90" s="26" t="n">
         <v>205</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E90" s="28" t="n">
+      <c r="E90" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="F90" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="I90" s="26" t="s">
+      <c r="I90" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="J90" s="34" t="n">
+      <c r="J90" s="33" t="n">
         <v>2.25</v>
       </c>
-      <c r="K90" s="35" t="s">
+      <c r="K90" s="5" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7112,7 +7137,7 @@
       <c r="G91" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="9" t="s">
         <v>400</v>
       </c>
       <c r="I91" s="5" t="s">
@@ -7153,7 +7178,7 @@
       <c r="I92" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="J92" s="30" t="n">
+      <c r="J92" s="29" t="n">
         <v>2.25</v>
       </c>
       <c r="K92" s="5" t="s">
@@ -7188,7 +7213,7 @@
       <c r="I93" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="J93" s="36" t="n">
+      <c r="J93" s="34" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="11" t="s">
@@ -7238,7 +7263,7 @@
       <c r="I95" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="J95" s="33" t="n">
+      <c r="J95" s="32" t="n">
         <v>0.75</v>
       </c>
       <c r="K95" s="9" t="s">
@@ -7273,7 +7298,7 @@
       <c r="I96" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="J96" s="33" t="n">
+      <c r="J96" s="32" t="n">
         <v>0.75</v>
       </c>
       <c r="K96" s="9" t="s">
@@ -7308,7 +7333,7 @@
       <c r="I97" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J97" s="30" t="n">
+      <c r="J97" s="29" t="n">
         <v>0.75</v>
       </c>
       <c r="K97" s="5" t="s">
@@ -7322,7 +7347,7 @@
       <c r="B98" s="20" t="n">
         <v>37</v>
       </c>
-      <c r="C98" s="32" t="s">
+      <c r="C98" s="31" t="s">
         <v>431</v>
       </c>
       <c r="D98" s="9" t="s">
@@ -7343,7 +7368,7 @@
       <c r="I98" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="J98" s="33" t="n">
+      <c r="J98" s="32" t="n">
         <v>0.75</v>
       </c>
       <c r="K98" s="9" t="s">
@@ -7378,7 +7403,7 @@
       <c r="I99" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J99" s="33" t="n">
+      <c r="J99" s="32" t="n">
         <v>0.75</v>
       </c>
       <c r="K99" s="9" t="s">
@@ -7413,7 +7438,7 @@
       <c r="I100" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J100" s="33" t="n">
+      <c r="J100" s="32" t="n">
         <v>0.75</v>
       </c>
       <c r="K100" s="9" t="s">
@@ -7448,7 +7473,7 @@
       <c r="I101" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="J101" s="33" t="n">
+      <c r="J101" s="32" t="n">
         <v>0.75</v>
       </c>
       <c r="K101" s="9" t="s">
@@ -7498,7 +7523,7 @@
       <c r="I103" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="J103" s="30" t="n">
+      <c r="J103" s="29" t="n">
         <v>2.25</v>
       </c>
       <c r="K103" s="9" t="s">
@@ -7698,7 +7723,7 @@
       <c r="I111" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="J111" s="33" t="n">
+      <c r="J111" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K111" s="9" t="s">
@@ -7733,7 +7758,7 @@
       <c r="I112" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="J112" s="33" t="n">
+      <c r="J112" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K112" s="9" t="s">
@@ -7768,7 +7793,7 @@
       <c r="I113" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="J113" s="30" t="n">
+      <c r="J113" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K113" s="9" t="s">
@@ -8338,7 +8363,7 @@
       <c r="I131" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="J131" s="30" t="n">
+      <c r="J131" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K131" s="5" t="s">
@@ -8642,7 +8667,7 @@
       <c r="B142" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="C142" s="31" t="s">
+      <c r="C142" s="30" t="s">
         <v>607</v>
       </c>
       <c r="D142" s="5" t="s">
@@ -8657,7 +8682,7 @@
       <c r="G142" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="H142" s="25" t="s">
+      <c r="H142" s="9" t="s">
         <v>608</v>
       </c>
       <c r="I142" s="5" t="s">
@@ -9043,10 +9068,10 @@
       <c r="I154" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="J154" s="30" t="n">
+      <c r="J154" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="K154" s="25" t="s">
+      <c r="K154" s="9" t="s">
         <v>658</v>
       </c>
     </row>
@@ -9075,7 +9100,7 @@
       <c r="H155" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I155" s="25" t="s">
+      <c r="I155" s="9" t="s">
         <v>662</v>
       </c>
       <c r="J155" s="10" t="n">
@@ -9107,7 +9132,7 @@
       <c r="G156" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H156" s="25" t="s">
+      <c r="H156" s="9" t="s">
         <v>667</v>
       </c>
       <c r="I156" s="5" t="s">
@@ -9121,37 +9146,37 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="157">
-      <c r="A157" s="26" t="s">
+      <c r="A157" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="B157" s="27" t="n">
+      <c r="B157" s="26" t="n">
         <v>45</v>
       </c>
-      <c r="C157" s="37" t="s">
+      <c r="C157" s="35" t="s">
         <v>671</v>
       </c>
-      <c r="D157" s="26" t="s">
+      <c r="D157" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E157" s="28" t="n">
+      <c r="E157" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="F157" s="26" t="s">
+      <c r="F157" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G157" s="26" t="s">
+      <c r="G157" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="H157" s="26" t="s">
+      <c r="H157" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I157" s="26" t="s">
+      <c r="I157" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="J157" s="34" t="n">
+      <c r="J157" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K157" s="25" t="s">
+      <c r="K157" s="9" t="s">
         <v>674</v>
       </c>
     </row>
@@ -9253,7 +9278,7 @@
       <c r="I160" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="J160" s="30" t="n">
+      <c r="J160" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K160" s="5" t="s">
@@ -9408,7 +9433,7 @@
       <c r="I165" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="J165" s="30" t="n">
+      <c r="J165" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K165" s="5" t="s">
@@ -9431,34 +9456,34 @@
       <c r="K166" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="167">
-      <c r="A167" s="26" t="s">
+      <c r="A167" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="C167" s="31" t="s">
+      <c r="C167" s="30" t="s">
         <v>710</v>
       </c>
-      <c r="D167" s="26" t="s">
+      <c r="D167" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E167" s="28" t="n">
+      <c r="E167" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="F167" s="26" t="s">
+      <c r="F167" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="G167" s="26" t="s">
+      <c r="G167" s="25" t="s">
         <v>711</v>
       </c>
       <c r="H167" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="I167" s="26" t="s">
+      <c r="I167" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="J167" s="34" t="n">
+      <c r="J167" s="33" t="n">
         <v>0</v>
       </c>
       <c r="K167" s="9" t="s">
@@ -9472,7 +9497,7 @@
       <c r="B168" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="C168" s="31" t="s">
+      <c r="C168" s="30" t="s">
         <v>717</v>
       </c>
       <c r="D168" s="5" t="s">
@@ -9493,92 +9518,92 @@
       <c r="I168" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="J168" s="30" t="n">
+      <c r="J168" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="K168" s="25" t="s">
+      <c r="K168" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="169">
-      <c r="A169" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="169">
+      <c r="A169" s="36" t="s">
         <v>721</v>
       </c>
-      <c r="B169" s="6" t="n">
+      <c r="B169" s="37" t="n">
         <v>24</v>
       </c>
-      <c r="C169" s="32" t="s">
+      <c r="C169" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D169" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E169" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G169" s="36" t="s">
         <v>722</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="H169" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="I169" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="J169" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" s="36" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="170">
+      <c r="A170" s="36" t="s">
+        <v>724</v>
+      </c>
+      <c r="B170" s="37" t="n">
+        <v>24</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="D170" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E169" s="8" t="n">
+      <c r="E170" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F170" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="G169" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="H169" s="5" t="s">
+      <c r="G170" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="H170" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="I169" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="J169" s="30" t="n">
+      <c r="I170" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="J170" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="K169" s="9" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="170">
-      <c r="A170" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>10</v>
+      <c r="K170" s="36" t="s">
+        <v>726</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="171">
       <c r="A171" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>727</v>
+        <v>728</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>729</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>32</v>
@@ -9590,30 +9615,30 @@
         <v>554</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="I171" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="J171" s="30" t="n">
+      <c r="J171" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="K171" s="25" t="s">
-        <v>730</v>
+      <c r="K171" s="9" t="s">
+        <v>732</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="172">
-      <c r="A172" s="25" t="s">
-        <v>731</v>
+      <c r="A172" s="9" t="s">
+        <v>733</v>
       </c>
       <c r="B172" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C172" s="31" t="s">
-        <v>732</v>
+      <c r="C172" s="30" t="s">
+        <v>734</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>32</v>
@@ -9631,24 +9656,24 @@
         <v>480</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="J172" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="173">
       <c r="A173" s="9" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>660</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>39</v>
@@ -9666,24 +9691,24 @@
         <v>480</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="J173" s="23" t="n">
         <v>0</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="174">
       <c r="A174" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>172</v>
@@ -9695,135 +9720,135 @@
         <v>40</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="I174" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="J174" s="30" t="n">
+      <c r="J174" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="175">
-      <c r="A175" s="26" t="s">
-        <v>745</v>
+      <c r="A175" s="25" t="s">
+        <v>747</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="C175" s="31" t="s">
-        <v>747</v>
-      </c>
-      <c r="D175" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="D175" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="E175" s="28" t="n">
+      <c r="E175" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="F175" s="26" t="s">
+      <c r="F175" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G175" s="26" t="s">
+      <c r="G175" s="25" t="s">
         <v>711</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="I175" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="I175" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="J175" s="34" t="n">
+      <c r="J175" s="33" t="n">
         <v>0</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="176">
-      <c r="A176" s="26" t="s">
-        <v>750</v>
+      <c r="A176" s="25" t="s">
+        <v>752</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="C176" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="D176" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="D176" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E176" s="28" t="n">
+      <c r="E176" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="F176" s="26" t="s">
+      <c r="F176" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G176" s="26" t="s">
-        <v>753</v>
+      <c r="G176" s="25" t="s">
+        <v>755</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="I176" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="I176" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="J176" s="34" t="n">
+      <c r="J176" s="33" t="n">
         <v>0</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="177">
-      <c r="A177" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="B177" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="C177" s="37" t="s">
+      <c r="A177" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="B177" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="D177" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E177" s="28" t="n">
+      <c r="E177" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="F177" s="26" t="s">
+      <c r="F177" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G177" s="26" t="s">
-        <v>728</v>
+      <c r="G177" s="25" t="s">
+        <v>730</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="I177" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="I177" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="J177" s="34" t="n">
+      <c r="J177" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K177" s="25" t="s">
-        <v>760</v>
+      <c r="K177" s="9" t="s">
+        <v>762</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="178">
-      <c r="A178" s="25" t="s">
-        <v>761</v>
+      <c r="A178" s="9" t="s">
+        <v>763</v>
       </c>
       <c r="B178" s="6" t="n">
         <v>16</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>64</v>
@@ -9841,94 +9866,94 @@
         <v>480</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="J178" s="30" t="n">
+        <v>765</v>
+      </c>
+      <c r="J178" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="179">
-      <c r="A179" s="25" t="s">
-        <v>765</v>
-      </c>
-      <c r="B179" s="27" t="n">
+      <c r="A179" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B179" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="C179" s="38" t="s">
-        <v>766</v>
-      </c>
-      <c r="D179" s="26" t="s">
+      <c r="C179" s="41" t="s">
+        <v>768</v>
+      </c>
+      <c r="D179" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E179" s="27" t="n">
+      <c r="E179" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F179" s="26" t="s">
+      <c r="F179" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G179" s="26" t="s">
+      <c r="G179" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="H179" s="26" t="s">
+      <c r="H179" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="I179" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="J179" s="34" t="n">
+      <c r="I179" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="J179" s="33" t="n">
         <v>0</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43" outlineLevel="0" r="180">
-      <c r="A180" s="26" t="s">
-        <v>769</v>
+      <c r="A180" s="25" t="s">
+        <v>771</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="C180" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="D180" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="D180" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E180" s="28" t="n">
+      <c r="E180" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="F180" s="26" t="s">
+      <c r="F180" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G180" s="26" t="s">
-        <v>742</v>
+      <c r="G180" s="25" t="s">
+        <v>744</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="I180" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="I180" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="J180" s="34" t="n">
+      <c r="J180" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K180" s="25" t="s">
-        <v>773</v>
+      <c r="K180" s="9" t="s">
+        <v>775</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="181">
       <c r="A181" s="16" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="C181" s="39" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="C181" s="42" t="s">
+        <v>778</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>473</v>
@@ -9940,24 +9965,24 @@
         <v>109</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H181" s="11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="I181" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="J181" s="36" t="n">
+      <c r="J181" s="34" t="n">
         <v>0</v>
       </c>
       <c r="K181" s="11" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="182">
       <c r="A182" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9972,13 +9997,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="183">
       <c r="A183" s="5" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>64</v>
@@ -9995,25 +10020,25 @@
       <c r="H183" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="I183" s="25" t="s">
-        <v>784</v>
+      <c r="I183" s="9" t="s">
+        <v>786</v>
       </c>
       <c r="J183" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K183" s="5" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="184">
       <c r="A184" s="5" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>32</v>
@@ -10028,27 +10053,27 @@
         <v>480</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="I184" s="25" t="s">
-        <v>789</v>
+        <v>790</v>
+      </c>
+      <c r="I184" s="9" t="s">
+        <v>791</v>
       </c>
       <c r="J184" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="185">
       <c r="A185" s="9" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>660</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>485</v>
@@ -10063,16 +10088,16 @@
         <v>480</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="J185" s="33" t="n">
+      <c r="J185" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="186">
@@ -10112,7 +10137,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="187">
       <c r="A187" s="9" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>660</v>
@@ -10136,18 +10161,18 @@
         <v>480</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="J187" s="33" t="n">
+        <v>798</v>
+      </c>
+      <c r="J187" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K187" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="188">
       <c r="A188" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>572</v>
@@ -10171,18 +10196,18 @@
         <v>480</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J188" s="30" t="n">
+        <v>801</v>
+      </c>
+      <c r="J188" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="189">
       <c r="A189" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10210,13 +10235,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="191">
       <c r="A191" s="5" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>660</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>172</v>
@@ -10234,24 +10259,24 @@
         <v>480</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="J191" s="10" t="n">
         <v>0</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="192">
       <c r="A192" s="5" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>660</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>485</v>
@@ -10259,8 +10284,8 @@
       <c r="E192" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F192" s="25" t="s">
-        <v>807</v>
+      <c r="F192" s="9" t="s">
+        <v>809</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>480</v>
@@ -10269,24 +10294,24 @@
         <v>480</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="J192" s="30" t="n">
+        <v>810</v>
+      </c>
+      <c r="J192" s="29" t="n">
         <v>0</v>
       </c>
       <c r="K192" s="5" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="193">
       <c r="A193" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>485</v>
@@ -10295,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="G193" s="9" t="s">
         <v>480</v>
@@ -10304,24 +10329,24 @@
         <v>480</v>
       </c>
       <c r="I193" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="J193" s="33" t="n">
+        <v>816</v>
+      </c>
+      <c r="J193" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="194">
       <c r="A194" s="9" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>485</v>
@@ -10330,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G194" s="9" t="s">
         <v>480</v>
@@ -10339,24 +10364,24 @@
         <v>480</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="J194" s="33" t="n">
+        <v>821</v>
+      </c>
+      <c r="J194" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K194" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="195">
       <c r="A195" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>660</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>64</v>
@@ -10374,33 +10399,33 @@
         <v>480</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J195" s="23" t="n">
         <v>0</v>
       </c>
       <c r="K195" s="9" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="196">
-      <c r="A196" s="40" t="s">
-        <v>824</v>
-      </c>
-      <c r="B196" s="40"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="40"/>
-      <c r="E196" s="40"/>
-      <c r="F196" s="40"/>
-      <c r="G196" s="40"/>
-      <c r="H196" s="40"/>
-      <c r="I196" s="40"/>
-      <c r="J196" s="40"/>
-      <c r="K196" s="40"/>
+      <c r="A196" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="B196" s="43"/>
+      <c r="C196" s="43"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
+      <c r="I196" s="43"/>
+      <c r="J196" s="43"/>
+      <c r="K196" s="43"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="197">
       <c r="A197" s="11" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
